--- a/medicine/Enfance/René_Hausman/René_Hausman.xlsx
+++ b/medicine/Enfance/René_Hausman/René_Hausman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Hausman</t>
+          <t>René_Hausman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Hausman, né le 21 février 1936 à Verviers (province de Liège) et mort le 28 avril 2016 dans la même ville, est un illustrateur et auteur de bande dessinée belge, connu pour ses représentations animalières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Hausman</t>
+          <t>René_Hausman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,30 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-René Hausman naît le 21 février 1936 à Verviers[1]. Il est issu d'une famille d'un père militaire[2] de carrière originaire des cantons rédimés, germanophone et d'une mère au foyer[3]. Enfant unique du couple[3], il passe une grande partie de son enfance en Westphalie, où son père est en garnison après la guerre[2], exerce la fonction de caporal-clairon[3]. Parmi ses premiers albums de bande dessinée figurent Max et Moritz de Wilhelm Busch[3]. René Hausman apprend le dessin en recopiant ses albums préférés dont ceux de Calvo[3] et en prenant une heure de cours par semaine alors qu'il fait ses études secondaires dispensés par le père de Maurice Maréchal[2], le créateur de Prudence Petitpas. Il fait une rencontre marquante à l’âge de dix-huit ans, alors qu’il réalise des illustrations de publicités dans le journal local et des images de films scolaires fixes, en la personne de Raymond Macherot[2]. Ce dernier lui prodigue maints conseils, lui permet de placer quatre illustrations de contes et nouvelles dans Tintin[4] en 1954. Il faudra attendre 25 ans pour qu'il revienne dans cet hebdomadaire pour en faire la couverture[4]. Puis Macherot, l'introduit auprès d'Yvan Delporte[3] des éditions Dupuis qui le prend sous son aile. Pendant son service militaire, commencé en 1956[3], il publie dans Le Moustique quatre planches humoristiques muettes, mettant en scène des cow-boys et des Indiens, en 1957[2].
-Dans Spirou
-Puis en 1958, à 22 ans, Raymond Macherot l'aide à entrer chez Spirou[5]. S'il anime dans ce journal une série de bande dessinée humoristique, Saki et Zunie[6], un charmant couple préhistorique[7], et qu'il publie de temps à autre des récits complets, il y est surtout célèbre pour Le Bestiaire, ses pages sur les animaux.
-De 1959 à 1973, sous les titres Le Bestiaire, Nature ou sans titre, des centaines d'animaux sont ainsi étudiés. Dans le Journal de Spirou, René Hausman illustre aussi en dehors de sa rubrique : nouvelles, fiches pédagogiques, suppléments, contes. Les éditions Dupuis publient ses œuvres dans différentes collections dont :  La Forêt secrète (quatre tomes, 1964 et 1979), Comédie animale (1972-1973), Le Roman de Renart (1970), Bestiaire insolite (1972) et Les Contes de Perrault (1979) parus dans la collection « Terre entière », les contes Saki et l’ours (1966), Les Baladins (1969) et Guillot le musicien (1970) de la « Collection du Carrousel » et les deux tomes en grand format du Grand bestiaire (1983-1984)[2], ces deux albums faisant l'objet d'une réédition en intégrale en 2014[8]. Au début des années 1970, René Hausman ne publie plus que peu dans le Journal de Spirou[5]. Par contre, on le retrouve dans le quotidien belge Le Soir[9] de 1969 à 1971. Il fait une première incartade à son éditeur historique en publiant Le Guide Marabout des animaux familiers, aux éditions Marabout en 1976. La même année, il fait son entrée à Fluide glacial[10] en y amenant la charmante Zunie et en collaborant avec Gotlib sur la série Allez coucher sales bêtes ! dès l'année suivante.
-En 1975, il est récompensé par la Pomme d'Or de Bratislava[11] de la Biennale d'illustration de Bratislava, pour Bestiaire insolite.
-En 1977, René Hausman participe au Trombone illustré[12].
-Puis, nouvelle série d'illustrations dont quelques nouvelles dans la revue (À suivre)[13] de 1978 à 1979, mais aussi la bande dessinée Laïyna. René Hausman devient en effet dans les années 1980 un dessinateur de bandes dessinées situées dans des univers féériques (plusieurs albums parus dans la collection « Aire libre »), et se spécialise dans l'illustration du même genre.
-En 1983, René Hausman signe le Manifeste pour la culture wallonne. En 1984, toujours en compagnie de Pierre Dubois, il entame l'illustration d'une série Le Grand fabulaire du petit peuple[14] dans Spirou jusqu'en 1986.
-Il s'associe au scénariste Yann pour le one shot Les Trois Cheveux blancs, publié dans la collection « Aire libre » aux éditions Dupuis en 1993, raconte l’histoire de Vaïva la sauvageonne romanesque accompagnée d’un goupil. Ils renouvellent l'association pour Le Prince des écureuils qui est prépublié dans BoDoï[15] et publié dans la même collection cinq ans plus tard. Ces deux ouvrages sont rassemblés dans Sortilèges et méchanteries chez le même éditeur en 2017[16].
-En 2003, il réalise seul le roman graphique Les Chasseurs de l'aube[17],[18] publié dans la collection « Aire libre » aux éditions Dupuis.
-Le 7 octobre 1995, en compagnie de Jef Nys, il est fait citoyen d'honneur de la ville de Durbuy[19].
-En 1998, il obtient, pour l'ensemble de son œuvre, le Prix « Grand Boum-Caisse d'Épargne », décerné par le Festival bd BOUM à Blois[20].
-Il illustre différents livres pour enfants : Loup Blanc, un album pour enfant écrit par Rascal pour L’École des loisirs (en 1994) ainsi que trois recueils de contes culinaires écrits par Michel Rodrigue pour les éditions Au bord des continents : La Grande Tambouille des fées (2003), La Grande Tambouille des sorcières[21] (2004) et La Grande Tambouille des lutins (2005).
-Fin 2008, Nathalie Troquette, l'épouse de René Hausman crée la petite maison d'édition Luzabelle dédiée à son œuvre. Dans un premier temps, les Éditions Luzabelle republient des planches animalières parues jadis chez Dupuis (Le Grand Bestiaire 2 tomes - 1984). Une réédition du livre Le Grand Fabulaire du petit peuple de Pierre Dubois et René Hausman est envisagée[22].
-Michel Rodrigue, lui écrit le one shot Le Chat qui courait sur les toits, une sensible histoire d’un jeune prince dont le visage, tout en conservant son corps d’humain, prend les traits des animaux dont il croise le regard[23],[24] dans la collection « Signé » aux éditions Le Lombard en 2010. Le même éditeur publie une monographie René Hausman - Mémoires d'un pinceau de 300 pages écrit par Nathalie Troquette[25],[26],[27],[28].
-En 2014, il réalise un artbook Abécédaire féerique accompagné de textes de son épouse aux éditions Noir Dessin Production[29]. Le 28 janvier 2015, il est élu Verviétois de l'année[30].
-En 2016, René Hausman reprend le personnage de Chlorophylle — créé par Raymond Macherot qu'il a bien connu —, sur un scénario de Jean-Luc Cornette, ce récit autoconclusif Chlorophylle et le monstre des trois sources est publié aux éditions Le Lombard[31],[32],[33].
-Autres activités
-Dans les années 1970, René Hausman fait aussi partie d'un groupe musical, Les Pêleteûs[34], utilisant des instruments traditionnels, dont le rommelpot, et chantant en wallon. C'est également un joueur de flûte et de cornemuse — dont le facteur est Jacques Laudy qui lui en fait cadeau — qui enregistre un disque en 33 tours en 1974 : Musique et chansons populaires de Wallonie[35]. Il est par ailleurs également sculpteur[12].
-Influences
-En termes d'influences, Hausman a pour maîtres : Edmond Calvo, Gus Bofa et Jiří Trnka[36], ainsi que Georges Beuville, Grandville et Benjamin Rabier[2], tout comme il avoue à Nicolas Anspach lors d'une interview publiée sur ActuaBD[37] : les illustrateurs anglais Edmond Dulac, Arthur Rackham et déclare aimer aussi l’univers méconnu et, injustement oublié, de Jacques Laudy ainsi que Jijé dans la série Jerry Spring.
-Décès
-Le 28 avril 2016, il meurt à son domicile d'un arrêt cardiaque[38] son domicile de Stembert à Verviers[39]. Il est inhumé au cimetière de Heusy[40]. Il laisse La Mémoire des pierres, écrite sur un scénario de Nathalie Troquette et Robert Reuchamps, sa dernière œuvre inachevée, publiée dans la collection « Aire libre » aux éditions Dupuis l'année suivante[41].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Hausman naît le 21 février 1936 à Verviers. Il est issu d'une famille d'un père militaire de carrière originaire des cantons rédimés, germanophone et d'une mère au foyer. Enfant unique du couple, il passe une grande partie de son enfance en Westphalie, où son père est en garnison après la guerre, exerce la fonction de caporal-clairon. Parmi ses premiers albums de bande dessinée figurent Max et Moritz de Wilhelm Busch. René Hausman apprend le dessin en recopiant ses albums préférés dont ceux de Calvo et en prenant une heure de cours par semaine alors qu'il fait ses études secondaires dispensés par le père de Maurice Maréchal, le créateur de Prudence Petitpas. Il fait une rencontre marquante à l’âge de dix-huit ans, alors qu’il réalise des illustrations de publicités dans le journal local et des images de films scolaires fixes, en la personne de Raymond Macherot. Ce dernier lui prodigue maints conseils, lui permet de placer quatre illustrations de contes et nouvelles dans Tintin en 1954. Il faudra attendre 25 ans pour qu'il revienne dans cet hebdomadaire pour en faire la couverture. Puis Macherot, l'introduit auprès d'Yvan Delporte des éditions Dupuis qui le prend sous son aile. Pendant son service militaire, commencé en 1956, il publie dans Le Moustique quatre planches humoristiques muettes, mettant en scène des cow-boys et des Indiens, en 1957.
 </t>
         </is>
       </c>
@@ -547,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Hausman</t>
+          <t>René_Hausman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,12 +557,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Père de trois enfants : Frédéric, Hugues et Valentin. Ses deux aînés sont les petits-fils de Noël Bissot. Hugues Hausman, dessinateur, scénariste de bande dessinée et réalisateur, acteur et comédien[42],[43].
+          <t>Dans Spirou</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puis en 1958, à 22 ans, Raymond Macherot l'aide à entrer chez Spirou. S'il anime dans ce journal une série de bande dessinée humoristique, Saki et Zunie, un charmant couple préhistorique, et qu'il publie de temps à autre des récits complets, il y est surtout célèbre pour Le Bestiaire, ses pages sur les animaux.
+De 1959 à 1973, sous les titres Le Bestiaire, Nature ou sans titre, des centaines d'animaux sont ainsi étudiés. Dans le Journal de Spirou, René Hausman illustre aussi en dehors de sa rubrique : nouvelles, fiches pédagogiques, suppléments, contes. Les éditions Dupuis publient ses œuvres dans différentes collections dont :  La Forêt secrète (quatre tomes, 1964 et 1979), Comédie animale (1972-1973), Le Roman de Renart (1970), Bestiaire insolite (1972) et Les Contes de Perrault (1979) parus dans la collection « Terre entière », les contes Saki et l’ours (1966), Les Baladins (1969) et Guillot le musicien (1970) de la « Collection du Carrousel » et les deux tomes en grand format du Grand bestiaire (1983-1984), ces deux albums faisant l'objet d'une réédition en intégrale en 2014. Au début des années 1970, René Hausman ne publie plus que peu dans le Journal de Spirou. Par contre, on le retrouve dans le quotidien belge Le Soir de 1969 à 1971. Il fait une première incartade à son éditeur historique en publiant Le Guide Marabout des animaux familiers, aux éditions Marabout en 1976. La même année, il fait son entrée à Fluide glacial en y amenant la charmante Zunie et en collaborant avec Gotlib sur la série Allez coucher sales bêtes ! dès l'année suivante.
+En 1975, il est récompensé par la Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava, pour Bestiaire insolite.
+En 1977, René Hausman participe au Trombone illustré.
+Puis, nouvelle série d'illustrations dont quelques nouvelles dans la revue (À suivre) de 1978 à 1979, mais aussi la bande dessinée Laïyna. René Hausman devient en effet dans les années 1980 un dessinateur de bandes dessinées situées dans des univers féériques (plusieurs albums parus dans la collection « Aire libre »), et se spécialise dans l'illustration du même genre.
+En 1983, René Hausman signe le Manifeste pour la culture wallonne. En 1984, toujours en compagnie de Pierre Dubois, il entame l'illustration d'une série Le Grand fabulaire du petit peuple dans Spirou jusqu'en 1986.
+Il s'associe au scénariste Yann pour le one shot Les Trois Cheveux blancs, publié dans la collection « Aire libre » aux éditions Dupuis en 1993, raconte l’histoire de Vaïva la sauvageonne romanesque accompagnée d’un goupil. Ils renouvellent l'association pour Le Prince des écureuils qui est prépublié dans BoDoï et publié dans la même collection cinq ans plus tard. Ces deux ouvrages sont rassemblés dans Sortilèges et méchanteries chez le même éditeur en 2017.
+En 2003, il réalise seul le roman graphique Les Chasseurs de l'aube, publié dans la collection « Aire libre » aux éditions Dupuis.
+Le 7 octobre 1995, en compagnie de Jef Nys, il est fait citoyen d'honneur de la ville de Durbuy.
+En 1998, il obtient, pour l'ensemble de son œuvre, le Prix « Grand Boum-Caisse d'Épargne », décerné par le Festival bd BOUM à Blois.
+Il illustre différents livres pour enfants : Loup Blanc, un album pour enfant écrit par Rascal pour L’École des loisirs (en 1994) ainsi que trois recueils de contes culinaires écrits par Michel Rodrigue pour les éditions Au bord des continents : La Grande Tambouille des fées (2003), La Grande Tambouille des sorcières (2004) et La Grande Tambouille des lutins (2005).
+Fin 2008, Nathalie Troquette, l'épouse de René Hausman crée la petite maison d'édition Luzabelle dédiée à son œuvre. Dans un premier temps, les Éditions Luzabelle republient des planches animalières parues jadis chez Dupuis (Le Grand Bestiaire 2 tomes - 1984). Une réédition du livre Le Grand Fabulaire du petit peuple de Pierre Dubois et René Hausman est envisagée.
+Michel Rodrigue, lui écrit le one shot Le Chat qui courait sur les toits, une sensible histoire d’un jeune prince dont le visage, tout en conservant son corps d’humain, prend les traits des animaux dont il croise le regard, dans la collection « Signé » aux éditions Le Lombard en 2010. Le même éditeur publie une monographie René Hausman - Mémoires d'un pinceau de 300 pages écrit par Nathalie Troquette.
+En 2014, il réalise un artbook Abécédaire féerique accompagné de textes de son épouse aux éditions Noir Dessin Production. Le 28 janvier 2015, il est élu Verviétois de l'année.
+En 2016, René Hausman reprend le personnage de Chlorophylle — créé par Raymond Macherot qu'il a bien connu —, sur un scénario de Jean-Luc Cornette, ce récit autoconclusif Chlorophylle et le monstre des trois sources est publié aux éditions Le Lombard.
 </t>
         </is>
       </c>
@@ -578,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Hausman</t>
+          <t>René_Hausman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,41 +608,262 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1970, René Hausman fait aussi partie d'un groupe musical, Les Pêleteûs, utilisant des instruments traditionnels, dont le rommelpot, et chantant en wallon. C'est également un joueur de flûte et de cornemuse — dont le facteur est Jacques Laudy qui lui en fait cadeau — qui enregistre un disque en 33 tours en 1974 : Musique et chansons populaires de Wallonie. Il est par ailleurs également sculpteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Influences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En termes d'influences, Hausman a pour maîtres : Edmond Calvo, Gus Bofa et Jiří Trnka, ainsi que Georges Beuville, Grandville et Benjamin Rabier, tout comme il avoue à Nicolas Anspach lors d'une interview publiée sur ActuaBD : les illustrateurs anglais Edmond Dulac, Arthur Rackham et déclare aimer aussi l’univers méconnu et, injustement oublié, de Jacques Laudy ainsi que Jijé dans la série Jerry Spring.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 avril 2016, il meurt à son domicile d'un arrêt cardiaque son domicile de Stembert à Verviers. Il est inhumé au cimetière de Heusy. Il laisse La Mémoire des pierres, écrite sur un scénario de Nathalie Troquette et Robert Reuchamps, sa dernière œuvre inachevée, publiée dans la collection « Aire libre » aux éditions Dupuis l'année suivante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Père de trois enfants : Frédéric, Hugues et Valentin. Ses deux aînés sont les petits-fils de Noël Bissot. Hugues Hausman, dessinateur, scénariste de bande dessinée et réalisateur, acteur et comédien,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Saki, Saki et Zunie, puis Zunie, paraît dans Spirou de 1958 à 1969, en 1977 et 1998. Plusieurs albums ont été édités :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Saki, Saki et Zunie, puis Zunie, paraît dans Spirou de 1958 à 1969, en 1977 et 1998. Plusieurs albums ont été édités :
 Saki et l'ours, Dupuis, Collection du Carrousel no 2, 1965
 Saki cherche un ami, Chlorophylle, 1980
 Saki et Zunie, Chlorophylle, 1980
-Zunie, Enfin seule ! (dessin, couleur), avec Hugues Hausman (scénario), Noir Dessin Production, 1998.  (ISBN 2-87351-022-6)
-Laïyna
-Laïyna raconte l'histoire d'une jeune femme qui rencontre les nains et les elfes, dans une ambiance sombre et cruelle.
+Zunie, Enfin seule ! (dessin, couleur), avec Hugues Hausman (scénario), Noir Dessin Production, 1998.  (ISBN 2-87351-022-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Laïyna</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Laïyna raconte l'histoire d'une jeune femme qui rencontre les nains et les elfes, dans une ambiance sombre et cruelle.
 1 La Forteresse de pierre, Dupuis, coll. « Les étoiles Dupuis », Marcinelle, janvier 1987Scénario : Pierre Dubois - Dessin et couleurs : René Hausman - (ISBN 2-8001-1474-6),Réédition dans la coll. « Aire Libre » (1989).  (ISBN 2-8001-1595-5)
-2 Le Crépuscule des elfes[44], Dupuis, coll. « Aire Libre », mai 1988Scénario : Pierre Dubois - Dessin et couleurs : René Hausman - (ISBN 2-8001-1596-3)
-Allez coucher, sales bêtes ![45], Dupuis, 1991Scénario : Binet, Delporte, Dubois, Gotlib, Lucques, Schoon et Yann - Dessin : René Hausman,Recueil d'histoires courtes parues dans Fluide glacial entre 1977 et 1981.
-Les Trois Cheveux blancs[16], Dupuis, coll. « Aire Libre », Marcinelle, 1993Scénario : Yann - Dessin et couleurs : René Hausman -  (ISBN 2-8001-1985-3)
-Le Prince des écureuils[16], Dupuis, coll. « Aire Libre », Marcinelle, 1998Scénario : Yann - Dessin et couleurs : René Hausman -  (ISBN 2-8001-2600-0),Ces deux ouvrages sont réunis dans l'album Sortilèges et méchanteries (2017).  (ISBN 9782800170015)
-Les Chasseurs de l'aube[17],[18], Dupuis, coll. « Aire Libre », Marcinelle, 2003Scénario, dessin et couleurs : René Hausman -  (ISBN 2-8001-3142-X)
+2 Le Crépuscule des elfes, Dupuis, coll. « Aire Libre », mai 1988Scénario : Pierre Dubois - Dessin et couleurs : René Hausman - (ISBN 2-8001-1596-3)
+Allez coucher, sales bêtes !, Dupuis, 1991Scénario : Binet, Delporte, Dubois, Gotlib, Lucques, Schoon et Yann - Dessin : René Hausman,Recueil d'histoires courtes parues dans Fluide glacial entre 1977 et 1981.
+Les Trois Cheveux blancs, Dupuis, coll. « Aire Libre », Marcinelle, 1993Scénario : Yann - Dessin et couleurs : René Hausman -  (ISBN 2-8001-1985-3)
+Le Prince des écureuils, Dupuis, coll. « Aire Libre », Marcinelle, 1998Scénario : Yann - Dessin et couleurs : René Hausman -  (ISBN 2-8001-2600-0),Ces deux ouvrages sont réunis dans l'album Sortilèges et méchanteries (2017).  (ISBN 9782800170015)
+Les Chasseurs de l'aube Dupuis, coll. « Aire Libre », Marcinelle, 2003Scénario, dessin et couleurs : René Hausman -  (ISBN 2-8001-3142-X)
 La Fontaine aux fables
 2 L'Éléphant et le Singe de Jupiter, Delcourt, coll. « Jeunesse », Paris, octobre 2004Scénario, dessin et couleurs : René Hausman -  (ISBN 2847895027),Adapté de Jean de La Fontaine.
 BD Blues
 5 Muddy Waters, Nocturne, 20 septembre 2005Scénario, dessin et couleurs : René Hausman -  (ISBN 2-8001-3249-3)
 One shots
-Le Camp-volant[46], Dupuis coll. « Aire Libre », Marcinelle, 2007Scénario, dessin et couleurs : René Hausman -  (ISBN 978-2-8001-3940-1)
-Le Chat qui courait sur les toits[23],[24], Le Lombard, coll. « Signé », Bruxelles, 2010Scénario : Michel Rodrigue - Dessin et couleurs : René Hausman -  (ISBN 978-2-8036-2578-9)
+Le Camp-volant, Dupuis coll. « Aire Libre », Marcinelle, 2007Scénario, dessin et couleurs : René Hausman -  (ISBN 978-2-8001-3940-1)
+Le Chat qui courait sur les toits Le Lombard, coll. « Signé », Bruxelles, 2010Scénario : Michel Rodrigue - Dessin et couleurs : René Hausman -  (ISBN 978-2-8036-2578-9)
 Capitaine Trèfle
 Capitaine Trèfle est à l'origine un roman d'aventures et de cape et d'épées pour enfants paru en 1981, création originale de Pierre Dubois. Il est adapté en bande dessinée en 2014 avec Pierre Dubois.
-Capitaine Trèfle[47],[48], Le Lombard, coll. « Signé », Bruxelles, 26 septembre 2014Scénario : Pierre Dubois - Dessin et couleurs : René Hausman - (ISBN 978-2-8036-3239-8)
+Capitaine Trèfle Le Lombard, coll. « Signé », Bruxelles, 26 septembre 2014Scénario : Pierre Dubois - Dessin et couleurs : René Hausman - (ISBN 978-2-8036-3239-8)
 Chlorophylle
-Chlorophylle et le monstre des Trois Sources[31],[32],[33], Le Lombard, Bruxelles, 2016Scénario : Jean-Luc Cornette - Dessin et couleurs : René Hausman -  (ISBN 9782803637065)
+Chlorophylle et le monstre des Trois Sources Le Lombard, Bruxelles, 2016Scénario : Jean-Luc Cornette - Dessin et couleurs : René Hausman -  (ISBN 9782803637065)
 La Mémoire des pierres
-La Mémoire des pierres[41],[49], Dupuis, coll. « Aire Libre », Marcinelle, 20 janvier 2017Scénario : Nathalie Troquette, Robert Reuchamps - Dessin et couleurs : René Hausman -  (ISBN 978-2-8001-6966-8),La dernière œuvre inachevée de René Hausman. Tirage limité à 3000 exemplaires - avec jaquette.
-Livres illustrés
-La Forêt secrète, Dupuis, coll. « Terre entière », 1964.
+La Mémoire des pierres Dupuis, coll. « Aire Libre », Marcinelle, 20 janvier 2017Scénario : Nathalie Troquette, Robert Reuchamps - Dessin et couleurs : René Hausman -  (ISBN 978-2-8001-6966-8),La dernière œuvre inachevée de René Hausman. Tirage limité à 3000 exemplaires - avec jaquette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Forêt secrète, Dupuis, coll. « Terre entière », 1964.
 Les Baladins, Dupuis, Collection du Carrousel no 30, 1969.
 Guillot le musicien, Dupuis, Collection du Carrousel no 45, 1970.
 Le Roman de Renart, Dupuis, coll. « Terre entière », 1970.
@@ -641,39 +877,143 @@
 Animaux sauvages d'Europe et d'Amérique du Nord, Dupuis, coll. « Le Grand Bestiaire Dupuis » :
 L'Arctique, Les Forêts du Nord, La montagne, 1983.
 Les Prés et les Bois, Les Oiseaux, La Steppe, 1984.
-Le Grand Bestiaire[8], réédition en intégrale, Dupuis, coll. « Le Grand Bestiaire », 2014  (ISBN 978-2-8001-5784-9)
+Le Grand Bestiaire, réédition en intégrale, Dupuis, coll. « Le Grand Bestiaire », 2014  (ISBN 978-2-8001-5784-9)
 Marcellin La Garde, récits de l'Ardenne, Labor, 1990.  (ISBN 978-2804008024)
 Les Faiseurs de nuées, ERC Éditions, 1998.
-Le Manège enchanteur de René Hausman[50], Centre belge de la bande dessinée, coll. « Philabédé », Bruxelles, 16 mai 2002Scénario et dessin : René Hausman - Couleurs : quadrichromie -  (ISBN 2-930196-24-6),contient 10 pages d'étude sur l’œuvre d'Hausman et une aventure de Saki et Zunie de 35 planches, Saki, Zunie et la nature, publiée en 1968 dans le journal de Spirou et restée inédite depuis. Avec les 3 timbres belges d'Hausman. Format A5.
-Artbooks
-Abécédaire féérique[29],[51], Noir Dessin Production, Grivegnée, 16 mai 2014Scénario : Nathalie Troquette - Dessin et couleurs : René Hausman -  (ISBN 978-2-87351-281-1)
-Collectifs
+Le Manège enchanteur de René Hausman, Centre belge de la bande dessinée, coll. « Philabédé », Bruxelles, 16 mai 2002Scénario et dessin : René Hausman - Couleurs : quadrichromie -  (ISBN 2-930196-24-6),contient 10 pages d'étude sur l’œuvre d'Hausman et une aventure de Saki et Zunie de 35 planches, Saki, Zunie et la nature, publiée en 1968 dans le journal de Spirou et restée inédite depuis. Avec les 3 timbres belges d'Hausman. Format A5.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Artbooks</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Abécédaire féérique Noir Dessin Production, Grivegnée, 16 mai 2014Scénario : Nathalie Troquette - Dessin et couleurs : René Hausman -  (ISBN 978-2-87351-281-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des collectifs
-Le Trombone illustré[52], Dupuis, Marcinelle, 3e trimestre 1980Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : quadrichromie,Réédition augmentée en 2009  (ISBN 978-2-8001-4279-1)
-Les Amis de Buddy Longway[53], Le Lombard, coll. « Phylactère », Bruxelles, avril 1983Scénario : collectif dont René Hausman - Dessin et couleurs : collectif -  (ISBN 2-8036-0042-0)
-Pétition - À la recherche d'Oesterheld et de tant d'autres[54] ! , Amnesty International, Bruxelles, novembre 1986Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : noir et blanc
+Le Trombone illustré, Dupuis, Marcinelle, 3e trimestre 1980Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : quadrichromie,Réédition augmentée en 2009  (ISBN 978-2-8001-4279-1)
+Les Amis de Buddy Longway, Le Lombard, coll. « Phylactère », Bruxelles, avril 1983Scénario : collectif dont René Hausman - Dessin et couleurs : collectif -  (ISBN 2-8036-0042-0)
+Pétition - À la recherche d'Oesterheld et de tant d'autres ! , Amnesty International, Bruxelles, novembre 1986Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : noir et blanc
 Entre chats, Delcourt, Paris, novembre 1989Scénario : collectif - Dessin : collectif dont René Hausman -  (ISBN 290618733X),avec la participation de Andreas, Barbe, Cabanes, Chevalier, Comès, Darasse, Follet, Franquin, Hanquet, Frank Pé, Juillard, V. Lacroix, Jean-Claire Lacroix, Lidwine, Rossi, Al Séverin, Topaze, Will et Wendling.
-Animaux a(d)mis[55], Alliance européenne, janvier 1990Scénario : collectif - Dessin : collectif dont René Hausman -  (ISBN 2-87364-000-6)
-Images du scoutisme - 50 ans de calendrier FSC[56], FSC, Bruxelles, 1991Scénario et couleurs : collectif - Dessin : collectif dont René Hausman,Préface : Stéphane Steeman. Participations : 1974 (couverture, mars ; août ; décembre), 1975 (janvier ; décembre), 1976 (novembre ; décembre), 1977 (novembre).
-Putinkon, le retour[57], P &amp; T Production, 1994Scénario : Éric Thomas - Dessin : collectif dont René Hausman - Couleurs : collectif -  (ISBN 2-87265-033-4)
+Animaux a(d)mis, Alliance européenne, janvier 1990Scénario : collectif - Dessin : collectif dont René Hausman -  (ISBN 2-87364-000-6)
+Images du scoutisme - 50 ans de calendrier FSC, FSC, Bruxelles, 1991Scénario et couleurs : collectif - Dessin : collectif dont René Hausman,Préface : Stéphane Steeman. Participations : 1974 (couverture, mars ; août ; décembre), 1975 (janvier ; décembre), 1976 (novembre ; décembre), 1977 (novembre).
+Putinkon, le retour, P &amp; T Production, 1994Scénario : Éric Thomas - Dessin : collectif dont René Hausman - Couleurs : collectif -  (ISBN 2-87265-033-4)
 Tronches de Concombre, Dupuis, Marcinelle, 1995Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : quadrichromie,Le Concombre masqué vu par 34 auteurs. Édition hors commerce. Format à l'italienne.
-Rire c'est rire[58], F.I.R., 1995Scénario et couleurs : collectif - Dessin : collectif dont René Hausman -  (ISBN 2-87265-046-6)
+Rire c'est rire, F.I.R., 1995Scénario et couleurs : collectif - Dessin : collectif dont René Hausman -  (ISBN 2-87265-046-6)
 17 La Vestale de satan, Dupuis, coll. « Repérages », Marcinelle, mai 1995Scénario et dessin : Michel Weyland - Couleurs : Nadine Weyland -  (ISBN 2-8001-2200-5),Participation : couverture. Série Aria.
-Hommage à Paul Deliège - Olne autrefois[59], Thierry Colin, Olne, juin 1997Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : noir et blanc,Tirage à 150 exemplaires numérotés et signés.
-Aire libre - Une exposition imaginaire[60], Dupuis, coll. « Aire libre », Marcinelle, juin 2000Scénario : Alain De Kuyssche, Claude Gendrot - Dessin : collectif dont René Hausman - Couleurs : quadrichromie -  (ISBN 2-8001-3075-X)
+Hommage à Paul Deliège - Olne autrefois, Thierry Colin, Olne, juin 1997Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : noir et blanc,Tirage à 150 exemplaires numérotés et signés.
+Aire libre - Une exposition imaginaire, Dupuis, coll. « Aire libre », Marcinelle, juin 2000Scénario : Alain De Kuyssche, Claude Gendrot - Dessin : collectif dont René Hausman - Couleurs : quadrichromie -  (ISBN 2-8001-3075-X)
 L'Arbre des deux printemps, Le Lombard, coll. « Signé », Bruxelles, décembre 2000Scénario : Rudi Miel - Dessin : Will, René Hausman et finalisé par les meilleurs représentants de la bande dessinée franco-belge - Couleurs : collectif -  (ISBN 2-8036-1600-9)
-Bulles de Noël[61], CBBD - La Poste belge coll. « Philabédé », Bruxelles, décembre 2002Scénario et dessin : Collectif - Couleurs : quadrichromie -  (ISBN 2930196300)Cet album est édité à l'occasion de l'émission d'une série de timbres consacrés à Noël. Après un texte sur la tradition de Noël dans la bande dessinée, ce recueil contient sept courts récits ou gags dessinés par Dany (Olivier Rameau), Fournier (Spirou et Fantasio), Dupa, Macherot (Sibylline), René Hausman, Will, De Marck et De Wulf (Stam et Pilou), sur le thème de Noël. Tirage limité à 2000 exemplaires numérotés. Revêtu de la feuille de timbres émise par La Poste belge. Format A5.
+Bulles de Noël, CBBD - La Poste belge coll. « Philabédé », Bruxelles, décembre 2002Scénario et dessin : Collectif - Couleurs : quadrichromie -  (ISBN 2930196300)Cet album est édité à l'occasion de l'émission d'une série de timbres consacrés à Noël. Après un texte sur la tradition de Noël dans la bande dessinée, ce recueil contient sept courts récits ou gags dessinés par Dany (Olivier Rameau), Fournier (Spirou et Fantasio), Dupa, Macherot (Sibylline), René Hausman, Will, De Marck et De Wulf (Stam et Pilou), sur le thème de Noël. Tirage limité à 2000 exemplaires numérotés. Revêtu de la feuille de timbres émise par La Poste belge. Format A5.
 10 Taka Takata - Opération Bommerang, Azéko, Artiguedieu, janvier 2005Scénario : Vicq - Dessin : Jo-El Azara -  (ISBN 291041812X),Participation : Hommage à Taka Takata.
 62 Auteurs de Boulogne Dessiné, Les Amis de la B.D., Boulogne-sur-Mer, décembre 2010Scénario : collectif - Dessin : collectif dont René Hausman -  (ISBN 978-2-9537801-0-9),Recueil réalisé dans le cadre du 20e festival BD de Boulogne-sur-Mer.
 2 Walthéries - Tome 2, GPROD, février 2013Scénario : collectif - Dessin : collectif dont René Hausman -  (ISBN 978-2-9601235-1-7),Tome 2 de l'album anniversaire des 50 ans de carrière de François Walthéry.
 La Galerie des Illustres, Dupuis, Marcinelle, 5 avril 2013Scénario : collectif - Dessin : collectif dont René Hausman - Couleurs : quadrichromie -  (ISBN 978-2-8001-5711-5),Entretiens menés par Jean-Pierre Fuéri.
 Contes de Noël du journal Spirou 1955-1969, Dupuis, coll. « Patrimoine », Marcinelle, 27 novembre 2020Scénario et dessin : collectif dont René Hausman - Couleurs : quadrichromie -  (ISBN 979-10-34738-18-2)
 Titeuforama : 120 variations de Titeuf, Glénat, coll. « Tchô ! La collec... », Grenoble, 3 mai 2023Scénario et couleurs : collectif - Dessin : collectif dont René Hausman -  (ISBN 978-2-344-05844-2)
-Illustrations
-La Vie des arbres, avec Georges Verlaine et Daniel Ferry, Dupuis, coll. « Merveilles de la Vie », 1961.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La Vie des arbres, avec Georges Verlaine et Daniel Ferry, Dupuis, coll. « Merveilles de la Vie », 1961.
 Les Fables de La Fontaine Tome 1, avec Jean de La Fontaine (texte), Dupuis, coll. « Terre entière », 1965.
 Les Fables de La Fontaine, avec Jean de La Fontaine (texte), Dupuis, coll. « Terre entière », 1977.
-Les Contes de Perrault, avec Charles Perrault (texte), Dupuis, coll. « Terre entière », 1979,Réédition en 2011[62], autre couverture et dessin inédit.  (ISBN 978-2-8001-5105-2)
+Les Contes de Perrault, avec Charles Perrault (texte), Dupuis, coll. « Terre entière », 1979,Réédition en 2011, autre couverture et dessin inédit.  (ISBN 978-2-8001-5105-2)
 La Chasse gourmande, avec Robert Dedouaire (texte), Dedouaire, Jalhay, 1985.
 Loup Blanc, avec Rascal (texte), Pastel-L'École des loisirs, 1994.  (ISBN 2-211-01921-8)
 Mémoire de fée, avec Jacques Sacré (texte), Schortgen, coll. « Légendes de nos villages », 1996.
@@ -682,9 +1022,44 @@
 La Grande Tambouille des sorcières, Michel Rodrigue (texte), Au bord des continents, 2004.
 La Grande Tambouille des lutins, Michel Rodrigue (texte), Au bord des continents, 2005.  (ISBN 9782911684432)
 L'Oiseau bleu, Maurice Maeterlinck (texte), Luc Pire, coll. « Espace Nord », 2009  (ISBN 9782507002787)
-L'Elféméride : Le Grand Légendaire des saisons, avec Pierre Dubois (texte), Hoëbeke, 2013  (ISBN 9782842304850).
-Discographie
-1974 : Musique et chansons populaires de Wallonie(Les Pêleteûs, 33 tours 30 cm Alpha 34[35])
+L'Elféméride : Le Grand Légendaire des saisons, avec Pierre Dubois (texte), Hoëbeke, 2013  (ISBN 9782842304850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1974 : Musique et chansons populaires de Wallonie(Les Pêleteûs, 33 tours 30 cm Alpha 34)
 Marie Clape Sabots
 Le Premier Jour De Mai
 Formulette, Suite Ardennaise 1
@@ -702,66 +1077,208 @@
 Deux Passe-Pieds
 Chanson de Noël
 "Héli", Air d'Épiphanie
-Cramignon
-Le para-BD
-Le para-BD de René Hausman est très important, il réalise ainsi des portfolios[63], coffrets, sérigraphies, posters, carrelages, ex-libris, jaquettes, autocollants, cartes postales, carte de vœux, étiquettes de vin ou de bière, timbres-poste[64], affiches[65],[66].
-Expositions
-René Hausman[67], Centre culturel de Welkenraedt, du 12 septembre au 13 octobre 2017 ;
-Les Chasseurs de l'aube, Espace de l’homme de Spy, Spy, du 26 au 29 mai 2022[68].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Hausman</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Cramignon</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Le para-BD</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le para-BD de René Hausman est très important, il réalise ainsi des portfolios, coffrets, sérigraphies, posters, carrelages, ex-libris, jaquettes, autocollants, cartes postales, carte de vœux, étiquettes de vin ou de bière, timbres-poste, affiches,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>René Hausman, Centre culturel de Welkenraedt, du 12 septembre au 13 octobre 2017 ;
+Les Chasseurs de l'aube, Espace de l’homme de Spy, Spy, du 26 au 29 mai 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distinction
-1991 :  Chevalier de l'Ordre de Léopold comme auteur ayant plus de vingt ans de carrière[69].
-Prix et récompenses
-1964 : prix Loisirs Jeunes de l'Éducation nationale pour La Forêt secrète[69] (Dupuis) ;
-1973 :  prix du Ministre de la Culture à Bruxelles[70] ;
-1975 :  Pomme d'Or de Bratislava[71],[11], lors de la Biennale d'illustration de Bratislava, pour le livre Le Bestiaire insolite (Dupuis) ;
-1984 :  prix Québec-Wallonie-Bruxelles de littérature de jeunesse[72] ;
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1991 :  Chevalier de l'Ordre de Léopold comme auteur ayant plus de vingt ans de carrière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1964 : prix Loisirs Jeunes de l'Éducation nationale pour La Forêt secrète (Dupuis) ;
+1973 :  prix du Ministre de la Culture à Bruxelles ;
+1975 :  Pomme d'Or de Bratislava lors de la Biennale d'illustration de Bratislava, pour le livre Le Bestiaire insolite (Dupuis) ;
+1984 :  prix Québec-Wallonie-Bruxelles de littérature de jeunesse ;
 1986 :
- prix BD Durbuy Strip[70] pour La Forteresse de pierre ;
- Betty Boop[69], prix du meilleur album enfant au Festival d'Hyères pour Laïyna ;
+ prix BD Durbuy Strip pour La Forteresse de pierre ;
+ Betty Boop, prix du meilleur album enfant au Festival d'Hyères pour Laïyna ;
 1987 :
- prix au Festival de BD à Sierre[73] pour Laïyna ;
- grand prix de la Ville de Charleroi[69] pour La Forteresse de pierre ;
-1993 :  prix d'honneur au Festival de bande dessinée de Middelkerke (nl) à Middelkerke pour Laïyna[74] ;
+ prix au Festival de BD à Sierre pour Laïyna ;
+ grand prix de la Ville de Charleroi pour La Forteresse de pierre ;
+1993 :  prix d'honneur au Festival de bande dessinée de Middelkerke (nl) à Middelkerke pour Laïyna ;
 1998 :
- prix Grand Boum - Caisse d'Épargne[20] ;
- prix Soleil d'Or[69], ex-aequo avec Alberto Varanda au Festival de Solliès-Ville ;
-2003 :  grand prix du festival de Lys-lez-Lannoy[75] pour l'ensemble de son œuvre.
-Postérité
-De nombreux auteurs de Spirou le caricaturent : Jean-Claude Fournier dans Bizu et le piège mélomane (1968), François Walthéry dans Natacha et les culottes de fer et surtout par Frank Pé dans Les Sculpteurs de lumière, une histoire de Broussaille qui lui donne les traits du personnage de l'Oncle René[2]. Alexis, lui rend hommage également avec un dessin publié au second plat de l'album Le Trombone illustré publié aux éditions Dupuis[52] en 1980, où il est caricaturé en compagnie du géant Franquin, tenant par la main un jeune Gotlib sous l'œil bienveillant de Yvan Delporte. Tandis que Marc Hardy en brosse le portrait[76].
-Au 3e trimestre 2002, La Poste belge émet une série de 3 timbres dessinés par René Hausman, relatifs à son œuvre dans le cadre de son émission annuelle « Philatélie de la Jeunesse »[77].
-Le 22 septembre 2012, l'École fondamentale autonome de la Communauté française de Heusy change de nom : désormais, l'école se nomme l'École fondamentale René Hausman[78].
-Un dessin à quatre mains sur papier en hommage à René Hausman est réalisé par deux artistes : Yannick Thiel et Gaspard Talmasse, membres du collectif d'artistes place Ô Zarts qu'il parrainait. Elle est installée définitivement à l'Espace Duesberg au centre culturel de Verviers le 5 septembre 2016[79].
-Les autorités communales de Verviers inaugurent le 29 novembre 2017 un square René Hausman et la fresque Les 4 saisons située Porte d’Heusy, composée de quatre panneaux[80].
-Selon Henri Filippini[42] : 
+ prix Grand Boum - Caisse d'Épargne ;
+ prix Soleil d'Or, ex-aequo avec Alberto Varanda au Festival de Solliès-Ville ;
+2003 :  grand prix du festival de Lys-lez-Lannoy pour l'ensemble de son œuvre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>René_Hausman</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Hausman</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux auteurs de Spirou le caricaturent : Jean-Claude Fournier dans Bizu et le piège mélomane (1968), François Walthéry dans Natacha et les culottes de fer et surtout par Frank Pé dans Les Sculpteurs de lumière, une histoire de Broussaille qui lui donne les traits du personnage de l'Oncle René. Alexis, lui rend hommage également avec un dessin publié au second plat de l'album Le Trombone illustré publié aux éditions Dupuis en 1980, où il est caricaturé en compagnie du géant Franquin, tenant par la main un jeune Gotlib sous l'œil bienveillant de Yvan Delporte. Tandis que Marc Hardy en brosse le portrait.
+Au 3e trimestre 2002, La Poste belge émet une série de 3 timbres dessinés par René Hausman, relatifs à son œuvre dans le cadre de son émission annuelle « Philatélie de la Jeunesse ».
+Le 22 septembre 2012, l'École fondamentale autonome de la Communauté française de Heusy change de nom : désormais, l'école se nomme l'École fondamentale René Hausman.
+Un dessin à quatre mains sur papier en hommage à René Hausman est réalisé par deux artistes : Yannick Thiel et Gaspard Talmasse, membres du collectif d'artistes place Ô Zarts qu'il parrainait. Elle est installée définitivement à l'Espace Duesberg au centre culturel de Verviers le 5 septembre 2016.
+Les autorités communales de Verviers inaugurent le 29 novembre 2017 un square René Hausman et la fresque Les 4 saisons située Porte d’Heusy, composée de quatre panneaux.
+Selon Henri Filippini : 
 « Entre illustration et bande dessinée, René Hausman, amoureux des bois et de ses populations, animalières ou imaginaires, laisse une œuvre originale, riche, hors des sentiers battus, qui ne laisse jamais le lecteur indifférent. »
 </t>
         </is>
